--- a/REGULAR/OJT/AMBAT, MARILOU.xlsx
+++ b/REGULAR/OJT/AMBAT, MARILOU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="413">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1269,6 +1269,9 @@
   </si>
   <si>
     <t>6/5-6/2023</t>
+  </si>
+  <si>
+    <t>07/22,24/2023</t>
   </si>
 </sst>
 </file>
@@ -2472,7 +2475,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.59000000000003</v>
+        <v>130.84000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2482,7 +2485,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>234.54200000000003</v>
+        <v>235.79200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14504,13 +14507,15 @@
       <c r="B549" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C549" s="13"/>
+      <c r="C549" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D549" s="39"/>
       <c r="E549" s="9"/>
       <c r="F549" s="20"/>
-      <c r="G549" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G549" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H549" s="39">
         <v>2</v>
@@ -14525,9 +14530,13 @@
       <c r="A550" s="40">
         <v>45108</v>
       </c>
-      <c r="B550" s="20"/>
+      <c r="B550" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="C550" s="13"/>
-      <c r="D550" s="39"/>
+      <c r="D550" s="39">
+        <v>2</v>
+      </c>
       <c r="E550" s="9"/>
       <c r="F550" s="20"/>
       <c r="G550" s="13" t="str">
@@ -14537,7 +14546,9 @@
       <c r="H550" s="39"/>
       <c r="I550" s="9"/>
       <c r="J550" s="11"/>
-      <c r="K550" s="20"/>
+      <c r="K550" s="20" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
